--- a/xls/skillConfig.xlsx
+++ b/xls/skillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="3795" windowWidth="28785" windowHeight="8760"/>
+    <workbookView xWindow="6525" yWindow="5205" windowWidth="28785" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="@技能" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
   <si>
     <t>id[!.][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,6 +37,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>triggerPer[][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,6 +54,374 @@
   </si>
   <si>
     <t>noticeClient[][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectType1[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueType1[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value1[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value3[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1、当前回合启动
+2、当前回合启动，进攻回合生效
+3、当前回合启动，防守回合生效
+4、下一回合启动，进攻回合生效
+5、下一回合启动，防守回合生效
+6、回合结束后
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准推射1</t>
+  </si>
+  <si>
+    <t>精准推射1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力抽射1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力抽射2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩虹过人1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术刀传球1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔性庆祝1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全能中场1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准抢断1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外脚背助攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外脚背助攻2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果类型（0 数值 1 千分比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚定信心2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚定信心1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">impactType[.][funcInt]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越位陷阱1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力抢断1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力抢断2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶狠抢断1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后防中坚1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶狠抢断2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透支防守1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透支防守2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力轰门1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机敏跑位1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人球分过1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰花指突破1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金童状态1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">目标
+1、自身
+2、对位防守者（不包括门将）
+3、对位进攻者
+4、对方门将
+5、本队队友（含门将）
+11、全队
+6、本队门将
+7、本队后场
+8、本队中场
+9、本队前场
+10、（下一轮）接球的队友
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12、新增：（下一轮）接球的对手球员
+13、新增：持球者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进球鼓舞1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精妙传递1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞墙配合1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞墙配合2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振臂高呼1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振臂高呼2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸气扑球1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泪流满面1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劲射1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神领袖1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变相突破1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留洋快马1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准传递1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中场支柱1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢断大师1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷听战术1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准选位1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拦截大师1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴身防守1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙传1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑铲1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞身救险1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣球过人1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奋力扑救1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扑救1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡位1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趟球过人1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿裆射门1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿裆射门2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单车过人1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血倒钩1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血倒钩2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马赛回旋2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马赛回旋1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中场屏障1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高位压迫1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽式防守1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽式防守2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防线指挥官1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意识传递1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大圣式超车1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大圣式超车2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectType2[][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueType2[][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value2[][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -81,46 +453,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>effectType3[][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>效果类型（0 数值 1 百分比）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>效果值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精准推射1</t>
-  </si>
-  <si>
-    <t>精准推射1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴力抽射1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴力抽射2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩虹过人1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手术刀传球1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔性庆祝1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全能中场1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比</t>
+    <t>valueType3[][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition[.][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -132,50 +477,6 @@
   </si>
   <si>
     <t>是否提示客户端 0 不提示 1提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果类型（0 数值 1 百分比）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectType2[][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>valueType2[][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value2[][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectType3[][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>valueType3[][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value3[][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">目标
-1、自身
-2、对位防守者（不包括门将）
-3、对位进攻者
-4、对方门将
-5、本队队友（含门将）
-11、全队
-6、本队门将
-7、本队后卫
-8、本队中场
-9、本队前锋
-10、（下一轮）接球的队友
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -207,42 +508,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effectType1[.][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>valueType1[.][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value1[.][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1、当前回合启动
-2、当前回合启动，进攻回合生效
-3、当前回合启动，防守回合生效
-4、下一回合启动，进攻回合生效
-5、下一回合启动，防守回合生效
-6、回合结束后
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition[.][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能释放条件
 112、立即生效
 113、射门成功
 114、射门失败
 115、普通传球
 116、完美传球
-117、被抢断
+117、被抢断或抢断对手
 118、突破成功
 119、没进球（防守成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程发炮1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力出奇迹1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捡漏达人1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">效果类型
+1、射门值、射门值%
+2、传球值、传球值%
+3、盘带值、盘带值%
+4、控球值、控球值%（增加控球值效果的技能都是被动，在计算攻守回合数时就要计算进去）
+5、防守值、防守值%
+6、拦截值、拦截值%
+7、抢断值、抢断值%
+8、守门值、守门值%
+9、射偏率
+10、进球率（计算完 （射门值-防守值）/守门值 的值）
+11、过人成功率（计算完 （抢断值-盘带值）/抢断基数 的值）
+12、完美传球几率（计算完 （传球-拦截）/传球基数 的值）
+13、怒气值
+14、终结者计算得球概率提升
+15、中间者计算得球概率提升
+17、造成晕眩，无法进行防守
+18、获得黄牌
+19、获得红牌
+20、改变流程
+22、将自身射门值的n%加到传球值上
+23、对手越位
+24、协防补位（一对一防守时）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25、新增：免疫负面状态（不再获得负面状态，已有的还存在）
+26、新增：解除负面状态（解除身上已拥有的负面状态，不免疫本轮获取的负面状态）
+28、新增：进行补射
+29、新增：反击
+注：进球率、射偏率、完美传球率、抢断率这些的千分比都是加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断球反击1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协防补位1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级狂魔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级狂魔2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益减益字段（1增益；2减益；3不可驱散的效果）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王牌杀手1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王牌杀手2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准推射1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,6 +623,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,14 +650,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +668,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -325,11 +720,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -702,153 +1115,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="10" customWidth="1"/>
     <col min="6" max="6" width="22.125" customWidth="1"/>
-    <col min="7" max="7" width="26.875" customWidth="1"/>
-    <col min="8" max="8" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.75" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="26.5" customWidth="1"/>
-    <col min="13" max="13" width="28.125" customWidth="1"/>
-    <col min="14" max="14" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="23.25" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="14" max="14" width="7.375" customWidth="1"/>
     <col min="15" max="15" width="26.5" customWidth="1"/>
     <col min="16" max="16" width="28.125" customWidth="1"/>
     <col min="17" max="17" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5" customWidth="1"/>
+    <col min="19" max="19" width="28.125" customWidth="1"/>
+    <col min="20" max="20" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="299.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
-        <v>11</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10010101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2">
         <v>100</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3">
@@ -867,23 +1289,33 @@
         <v>1</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M3">
+        <v>100101</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N32" si="0">L3/10</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10010102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2">
         <v>100</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4">
@@ -902,23 +1334,33 @@
         <v>1</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M4">
+        <v>100102</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10010103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="10">
         <v>1</v>
       </c>
       <c r="F5">
@@ -937,23 +1379,33 @@
         <v>1</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M5">
+        <v>100103</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10010104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="10">
         <v>1</v>
       </c>
       <c r="F6">
@@ -972,23 +1424,33 @@
         <v>1</v>
       </c>
       <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M6">
+        <v>100104</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10010105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2">
         <v>100</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="10">
         <v>1</v>
       </c>
       <c r="F7">
@@ -1007,23 +1469,33 @@
         <v>1</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M7">
+        <v>100105</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10010106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="10">
         <v>1</v>
       </c>
       <c r="F8">
@@ -1042,23 +1514,33 @@
         <v>1</v>
       </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M8">
+        <v>100106</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10010107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2">
         <v>100</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="10">
         <v>1</v>
       </c>
       <c r="F9">
@@ -1077,23 +1559,33 @@
         <v>1</v>
       </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M9">
+        <v>100107</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10010108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2">
         <v>100</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="10">
         <v>1</v>
       </c>
       <c r="F10">
@@ -1112,23 +1604,33 @@
         <v>1</v>
       </c>
       <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M10">
+        <v>100108</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10010109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D11" s="2">
         <v>100</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="10">
         <v>1</v>
       </c>
       <c r="F11">
@@ -1147,23 +1649,33 @@
         <v>1</v>
       </c>
       <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M11">
+        <v>100109</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10010110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2">
         <v>100</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="10">
         <v>1</v>
       </c>
       <c r="F12">
@@ -1182,23 +1694,33 @@
         <v>1</v>
       </c>
       <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M12">
+        <v>100110</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10010111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2">
         <v>100</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="10">
         <v>1</v>
       </c>
       <c r="F13">
@@ -1217,23 +1739,33 @@
         <v>1</v>
       </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M13">
+        <v>100111</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10010112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D14" s="2">
         <v>100</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="10">
         <v>1</v>
       </c>
       <c r="F14">
@@ -1252,23 +1784,33 @@
         <v>1</v>
       </c>
       <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M14">
+        <v>100112</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10010113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D15" s="2">
         <v>100</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="10">
         <v>1</v>
       </c>
       <c r="F15">
@@ -1287,23 +1829,33 @@
         <v>1</v>
       </c>
       <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M15">
+        <v>100113</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>10010114</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2">
         <v>100</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="10">
         <v>1</v>
       </c>
       <c r="F16">
@@ -1322,23 +1874,33 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>100114</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>10010115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2">
         <v>100</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="10">
         <v>1</v>
       </c>
       <c r="F17">
@@ -1357,23 +1919,33 @@
         <v>1</v>
       </c>
       <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M17">
+        <v>100115</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>10010116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D18" s="2">
         <v>100</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="10">
         <v>1</v>
       </c>
       <c r="F18">
@@ -1392,23 +1964,33 @@
         <v>1</v>
       </c>
       <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M18">
+        <v>100116</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>10010117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2">
         <v>100</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="10">
         <v>1</v>
       </c>
       <c r="F19">
@@ -1427,58 +2009,78 @@
         <v>1</v>
       </c>
       <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M19">
+        <v>100117</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>10010118</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>112</v>
+      </c>
+      <c r="D20" s="2">
+        <v>100</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>120</v>
+      </c>
+      <c r="M20">
+        <v>100118</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>100</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>10010119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D21" s="2">
         <v>100</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="10">
         <v>1</v>
       </c>
       <c r="F21">
@@ -1497,23 +2099,33 @@
         <v>1</v>
       </c>
       <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M21">
+        <v>100119</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>10010120</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C22" s="8">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D22" s="8">
         <v>100</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="11">
         <v>1</v>
       </c>
       <c r="F22" s="7">
@@ -1532,23 +2144,33 @@
         <v>1</v>
       </c>
       <c r="K22" s="7">
+        <v>1</v>
+      </c>
+      <c r="L22" s="7">
         <v>130</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M22">
+        <v>100120</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>10010121</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D23" s="2">
         <v>100</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="10">
         <v>1</v>
       </c>
       <c r="F23">
@@ -1567,23 +2189,33 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>140</v>
+      </c>
+      <c r="M23">
+        <v>100121</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>10010122</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D24" s="2">
         <v>100</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="10">
         <v>1</v>
       </c>
       <c r="F24">
@@ -1602,23 +2234,33 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>150</v>
+      </c>
+      <c r="M24">
+        <v>100122</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>10010123</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D25" s="2">
         <v>100</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="10">
         <v>1</v>
       </c>
       <c r="F25">
@@ -1637,23 +2279,33 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>160</v>
+      </c>
+      <c r="M25">
+        <v>100123</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>10010124</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D26" s="2">
         <v>100</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="10">
         <v>1</v>
       </c>
       <c r="F26">
@@ -1672,23 +2324,33 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>170</v>
+      </c>
+      <c r="M26">
+        <v>100124</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>10010125</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D27" s="2">
         <v>100</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="10">
         <v>1</v>
       </c>
       <c r="F27">
@@ -1707,23 +2369,33 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>180</v>
+      </c>
+      <c r="M27">
+        <v>100125</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>10010126</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2">
         <v>100</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="10">
         <v>1</v>
       </c>
       <c r="F28">
@@ -1742,23 +2414,33 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>190</v>
+      </c>
+      <c r="M28">
+        <v>100126</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>10010127</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D29" s="2">
         <v>100</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="10">
         <v>1</v>
       </c>
       <c r="F29">
@@ -1777,23 +2459,33 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>200</v>
+      </c>
+      <c r="M29">
+        <v>100127</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>10010128</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D30" s="2">
         <v>100</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="10">
         <v>1</v>
       </c>
       <c r="F30">
@@ -1812,23 +2504,33 @@
         <v>1</v>
       </c>
       <c r="K30">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>210</v>
+      </c>
+      <c r="M30">
+        <v>100128</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>10010129</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D31" s="2">
         <v>100</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="10">
         <v>1</v>
       </c>
       <c r="F31">
@@ -1847,58 +2549,78 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>220</v>
+      </c>
+      <c r="M31">
+        <v>100129</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="19">
         <v>10010130</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>100</v>
-      </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B32" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="20">
+        <v>112</v>
+      </c>
+      <c r="D32" s="20">
+        <v>100</v>
+      </c>
+      <c r="E32" s="21">
+        <v>1</v>
+      </c>
+      <c r="F32" s="19">
+        <v>2</v>
+      </c>
+      <c r="G32" s="20">
+        <v>2</v>
+      </c>
+      <c r="H32" s="19">
+        <v>1</v>
+      </c>
+      <c r="I32" s="19">
+        <v>1</v>
+      </c>
+      <c r="J32" s="19">
+        <v>1</v>
+      </c>
+      <c r="K32" s="19">
+        <v>1</v>
+      </c>
+      <c r="L32" s="19">
+        <v>230</v>
+      </c>
+      <c r="M32">
+        <v>100130</v>
+      </c>
+      <c r="N32" s="19">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>10020101</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D33" s="2">
         <v>100</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="10">
         <v>1</v>
       </c>
       <c r="F33" s="5">
@@ -1917,15 +2639,18 @@
         <v>1</v>
       </c>
       <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>10020201</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C34" s="2">
         <v>113</v>
@@ -1933,7 +2658,7 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="10">
         <v>4</v>
       </c>
       <c r="F34" s="5">
@@ -1946,21 +2671,24 @@
         <v>1</v>
       </c>
       <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
         <v>8</v>
       </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
       <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
         <v>-100</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>10030101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="2">
         <v>118</v>
@@ -1968,153 +2696,3160 @@
       <c r="D35" s="2">
         <v>100</v>
       </c>
-      <c r="E35" s="5">
-        <v>2</v>
-      </c>
-      <c r="F35" s="10">
+      <c r="E35" s="10">
+        <v>2</v>
+      </c>
+      <c r="F35" s="9">
         <v>5</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>3</v>
       </c>
-      <c r="H35" s="10">
-        <v>1</v>
-      </c>
-      <c r="I35" s="10">
+      <c r="H35" s="9">
+        <v>1</v>
+      </c>
+      <c r="I35" s="9">
+        <v>2</v>
+      </c>
+      <c r="J35" s="9">
         <v>5</v>
       </c>
-      <c r="J35" s="10">
-        <v>1</v>
-      </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
+        <v>1</v>
+      </c>
+      <c r="L35" s="9">
         <v>-150</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36">
+        <v>10040101</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="2">
+        <v>114</v>
+      </c>
+      <c r="D36" s="2">
+        <v>100</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1</v>
+      </c>
+      <c r="J36" s="9">
+        <v>28</v>
+      </c>
+      <c r="K36" s="9">
+        <v>1</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>10050101</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="2">
+        <v>112</v>
+      </c>
+      <c r="D37" s="2">
+        <v>100</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
+        <v>2</v>
+      </c>
+      <c r="G37" s="9">
+        <v>3</v>
+      </c>
+      <c r="H37" s="9">
+        <v>1</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1</v>
+      </c>
+      <c r="J37" s="9">
+        <v>22</v>
+      </c>
+      <c r="K37" s="9">
+        <v>1</v>
+      </c>
+      <c r="L37" s="9">
+        <v>200</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A38">
         <v>10060101</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2">
+        <v>112</v>
+      </c>
+      <c r="D38" s="2">
+        <v>100</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9">
+        <v>2</v>
+      </c>
+      <c r="G38" s="9">
+        <v>2</v>
+      </c>
+      <c r="H38" s="9">
+        <v>1</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1</v>
+      </c>
+      <c r="J38" s="9">
+        <v>2</v>
+      </c>
+      <c r="K38" s="9">
+        <v>1</v>
+      </c>
+      <c r="L38" s="9">
+        <v>200</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>10070101</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2">
+        <v>113</v>
+      </c>
+      <c r="D39" s="2">
+        <v>100</v>
+      </c>
+      <c r="E39" s="10">
+        <v>11</v>
+      </c>
+      <c r="F39" s="9">
+        <v>6</v>
+      </c>
+      <c r="G39" s="9">
+        <v>3</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1</v>
+      </c>
+      <c r="J39" s="9">
+        <v>1</v>
+      </c>
+      <c r="K39" s="9">
+        <v>1</v>
+      </c>
+      <c r="L39" s="9">
+        <v>120</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>10080101</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2">
+        <v>112</v>
+      </c>
+      <c r="D40" s="2">
+        <v>100</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9">
+        <v>2</v>
+      </c>
+      <c r="G40" s="9">
+        <v>3</v>
+      </c>
+      <c r="H40" s="9">
+        <v>1</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1</v>
+      </c>
+      <c r="J40" s="9">
+        <v>1</v>
+      </c>
+      <c r="K40" s="9">
+        <v>1</v>
+      </c>
+      <c r="L40" s="9">
+        <v>100</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9">
+        <v>2</v>
+      </c>
+      <c r="P40" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>100</v>
+      </c>
+      <c r="R40" s="9">
+        <v>3</v>
+      </c>
+      <c r="S40" s="9">
+        <v>1</v>
+      </c>
+      <c r="T40" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>10100101</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="2">
+        <v>112</v>
+      </c>
+      <c r="D41" s="2">
+        <v>100</v>
+      </c>
+      <c r="E41" s="10">
+        <v>1</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
+        <v>1</v>
+      </c>
+      <c r="J41" s="9">
+        <v>11</v>
+      </c>
+      <c r="K41" s="9">
+        <v>1</v>
+      </c>
+      <c r="L41" s="9">
+        <v>2000</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>10100201</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="2">
+        <v>118</v>
+      </c>
+      <c r="D42" s="2">
+        <v>50</v>
+      </c>
+      <c r="E42" s="10">
+        <v>2</v>
+      </c>
+      <c r="F42" s="9">
+        <v>6</v>
+      </c>
+      <c r="G42" s="9">
+        <v>3</v>
+      </c>
+      <c r="H42" s="9">
+        <v>1</v>
+      </c>
+      <c r="I42" s="9">
+        <v>2</v>
+      </c>
+      <c r="J42" s="9">
         <v>17</v>
       </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>100</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10">
-        <v>2</v>
-      </c>
-      <c r="G36" s="10">
-        <v>2</v>
-      </c>
-      <c r="H36" s="10">
-        <v>1</v>
-      </c>
-      <c r="I36" s="10">
-        <v>2</v>
-      </c>
-      <c r="J36" s="10">
-        <v>1</v>
-      </c>
-      <c r="K36" s="10">
+      <c r="K42" s="13">
+        <v>1</v>
+      </c>
+      <c r="L42" s="13">
+        <v>0</v>
+      </c>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>10110101</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="2">
+        <v>112</v>
+      </c>
+      <c r="D43" s="2">
+        <v>100</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1</v>
+      </c>
+      <c r="H43" s="9">
+        <v>1</v>
+      </c>
+      <c r="I43" s="9">
+        <v>1</v>
+      </c>
+      <c r="J43" s="9">
+        <v>7</v>
+      </c>
+      <c r="K43" s="9">
+        <v>1</v>
+      </c>
+      <c r="L43" s="9">
+        <v>250</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>10120101</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="2">
+        <v>112</v>
+      </c>
+      <c r="D44" s="2">
+        <v>100</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
+      <c r="H44" s="9">
+        <v>1</v>
+      </c>
+      <c r="I44" s="9">
+        <v>1</v>
+      </c>
+      <c r="J44" s="9">
+        <v>12</v>
+      </c>
+      <c r="K44" s="9">
+        <v>1</v>
+      </c>
+      <c r="L44" s="9">
+        <v>2000</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>10120201</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="2">
+        <v>116</v>
+      </c>
+      <c r="D45" s="2">
+        <v>100</v>
+      </c>
+      <c r="E45" s="10">
+        <v>10</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
+      <c r="H45" s="9">
+        <v>1</v>
+      </c>
+      <c r="I45" s="9">
+        <v>1</v>
+      </c>
+      <c r="J45" s="9">
+        <v>1</v>
+      </c>
+      <c r="K45" s="9">
+        <v>1</v>
+      </c>
+      <c r="L45" s="9">
+        <v>100</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>10130101</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="2">
+        <v>112</v>
+      </c>
+      <c r="D46" s="2">
+        <v>100</v>
+      </c>
+      <c r="E46" s="10">
+        <v>11</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+      <c r="H46" s="9">
+        <v>1</v>
+      </c>
+      <c r="I46" s="9">
+        <v>1</v>
+      </c>
+      <c r="J46" s="9">
+        <v>25</v>
+      </c>
+      <c r="K46" s="13">
+        <v>1</v>
+      </c>
+      <c r="L46" s="13">
+        <v>0</v>
+      </c>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>10130201</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="2">
+        <v>112</v>
+      </c>
+      <c r="D47" s="2">
+        <v>100</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
+      <c r="F47" s="9">
+        <v>6</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <v>1</v>
+      </c>
+      <c r="J47" s="9">
+        <v>13</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>10</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>10150101</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="2">
+        <v>112</v>
+      </c>
+      <c r="D48" s="2">
+        <v>50</v>
+      </c>
+      <c r="E48" s="10">
+        <v>12</v>
+      </c>
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
+        <v>2</v>
+      </c>
+      <c r="J48" s="9">
+        <v>23</v>
+      </c>
+      <c r="K48" s="13">
+        <v>1</v>
+      </c>
+      <c r="L48" s="13">
+        <v>0</v>
+      </c>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>10160101</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="2">
+        <v>112</v>
+      </c>
+      <c r="D49" s="2">
+        <v>100</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1</v>
+      </c>
+      <c r="F49" s="9">
+        <v>1</v>
+      </c>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
+        <v>1</v>
+      </c>
+      <c r="J49" s="9">
+        <v>7</v>
+      </c>
+      <c r="K49" s="9">
+        <v>1</v>
+      </c>
+      <c r="L49" s="9">
+        <v>50</v>
+      </c>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>10160201</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="2">
+        <v>117</v>
+      </c>
+      <c r="D50" s="2">
+        <v>100</v>
+      </c>
+      <c r="E50" s="10">
+        <v>3</v>
+      </c>
+      <c r="F50" s="9">
+        <v>6</v>
+      </c>
+      <c r="G50" s="9">
+        <v>3</v>
+      </c>
+      <c r="H50" s="9">
+        <v>1</v>
+      </c>
+      <c r="I50" s="9">
+        <v>2</v>
+      </c>
+      <c r="J50" s="9">
+        <v>3</v>
+      </c>
+      <c r="K50" s="9">
+        <v>1</v>
+      </c>
+      <c r="L50" s="9">
+        <v>-200</v>
+      </c>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>10170101</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="2">
+        <v>112</v>
+      </c>
+      <c r="D51" s="2">
+        <v>100</v>
+      </c>
+      <c r="E51" s="10">
+        <v>7</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
+      <c r="H51" s="9">
+        <v>1</v>
+      </c>
+      <c r="I51" s="9">
+        <v>1</v>
+      </c>
+      <c r="J51" s="9">
+        <v>26</v>
+      </c>
+      <c r="K51" s="13">
+        <v>1</v>
+      </c>
+      <c r="L51" s="13">
+        <v>0</v>
+      </c>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="9">
+        <v>13</v>
+      </c>
+      <c r="P51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>10180101</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="2">
+        <v>117</v>
+      </c>
+      <c r="D52" s="2">
+        <v>100</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <v>1</v>
+      </c>
+      <c r="J52" s="9">
+        <v>2</v>
+      </c>
+      <c r="K52" s="15">
+        <v>1</v>
+      </c>
+      <c r="L52" s="15">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>10070101</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="9">
+        <v>29</v>
+      </c>
+      <c r="P52" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>10190101</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="2">
+        <v>112</v>
+      </c>
+      <c r="D53" s="2">
+        <v>100</v>
+      </c>
+      <c r="E53" s="10">
+        <v>1</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>1</v>
+      </c>
+      <c r="J53" s="9">
+        <v>7</v>
+      </c>
+      <c r="K53" s="9">
+        <v>1</v>
+      </c>
+      <c r="L53" s="9">
+        <v>50</v>
+      </c>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>10190201</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="2">
+        <v>117</v>
+      </c>
+      <c r="D54" s="2">
+        <v>100</v>
+      </c>
+      <c r="E54" s="10">
+        <v>3</v>
+      </c>
+      <c r="F54" s="9">
+        <v>6</v>
+      </c>
+      <c r="G54" s="9">
+        <v>3</v>
+      </c>
+      <c r="H54" s="9">
+        <v>1</v>
+      </c>
+      <c r="I54" s="9">
+        <v>2</v>
+      </c>
+      <c r="J54" s="9">
+        <v>1</v>
+      </c>
+      <c r="K54" s="9">
+        <v>1</v>
+      </c>
+      <c r="L54" s="9">
+        <v>-200</v>
+      </c>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>10200101</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="2">
+        <v>112</v>
+      </c>
+      <c r="D55" s="2">
+        <v>100</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9">
+        <v>1</v>
+      </c>
+      <c r="J55" s="9">
+        <v>5</v>
+      </c>
+      <c r="K55" s="9">
+        <v>1</v>
+      </c>
+      <c r="L55" s="9">
+        <v>500</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>10200201</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="2">
+        <v>112</v>
+      </c>
+      <c r="D56" s="2">
+        <v>100</v>
+      </c>
+      <c r="E56" s="10">
+        <v>1</v>
+      </c>
+      <c r="F56" s="9">
+        <v>5</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="9">
+        <v>1</v>
+      </c>
+      <c r="I56" s="9">
+        <v>2</v>
+      </c>
+      <c r="J56" s="9">
+        <v>5</v>
+      </c>
+      <c r="K56" s="9">
+        <v>1</v>
+      </c>
+      <c r="L56" s="9">
+        <v>-200</v>
+      </c>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>10210101</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="2">
+        <v>118</v>
+      </c>
+      <c r="D57" s="2">
+        <v>100</v>
+      </c>
+      <c r="E57" s="10">
+        <v>3</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>3</v>
+      </c>
+      <c r="J57" s="9">
+        <v>9</v>
+      </c>
+      <c r="K57" s="9">
+        <v>1</v>
+      </c>
+      <c r="L57" s="9">
+        <v>750</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>10210201</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="2">
+        <v>118</v>
+      </c>
+      <c r="D58" s="2">
+        <v>100</v>
+      </c>
+      <c r="E58" s="10">
+        <v>1</v>
+      </c>
+      <c r="F58" s="9">
+        <v>1</v>
+      </c>
+      <c r="G58" s="9">
+        <v>1</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+      <c r="I58" s="9">
+        <v>3</v>
+      </c>
+      <c r="J58" s="9">
+        <v>10</v>
+      </c>
+      <c r="K58" s="9">
+        <v>1</v>
+      </c>
+      <c r="L58" s="9">
+        <v>2000</v>
+      </c>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>10220101</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="2">
+        <v>112</v>
+      </c>
+      <c r="D59" s="2">
+        <v>100</v>
+      </c>
+      <c r="E59" s="10">
+        <v>1</v>
+      </c>
+      <c r="F59" s="9">
+        <v>1</v>
+      </c>
+      <c r="G59" s="9">
+        <v>2</v>
+      </c>
+      <c r="H59" s="9">
+        <v>1</v>
+      </c>
+      <c r="I59" s="9">
+        <v>1</v>
+      </c>
+      <c r="J59" s="9">
+        <v>1</v>
+      </c>
+      <c r="K59" s="9">
+        <v>1</v>
+      </c>
+      <c r="L59" s="9">
+        <v>150</v>
+      </c>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>10230101</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="2">
+        <v>112</v>
+      </c>
+      <c r="D60" s="2">
+        <v>100</v>
+      </c>
+      <c r="E60" s="10">
+        <v>1</v>
+      </c>
+      <c r="F60" s="9">
+        <v>1</v>
+      </c>
+      <c r="G60" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H60" s="9">
+        <v>1</v>
+      </c>
+      <c r="I60" s="9">
+        <v>1</v>
+      </c>
+      <c r="J60" s="9">
+        <v>10</v>
+      </c>
+      <c r="K60" s="13">
+        <v>1</v>
+      </c>
+      <c r="L60" s="14">
+        <v>100</v>
+      </c>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>10240101</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="2">
+        <v>112</v>
+      </c>
+      <c r="D61" s="2">
+        <v>100</v>
+      </c>
+      <c r="E61" s="10">
+        <v>1</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1</v>
+      </c>
+      <c r="G61" s="9">
+        <v>1</v>
+      </c>
+      <c r="H61" s="9">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
+        <v>1</v>
+      </c>
+      <c r="J61" s="9">
+        <v>11</v>
+      </c>
+      <c r="K61" s="9">
+        <v>1</v>
+      </c>
+      <c r="L61" s="9">
+        <v>2000</v>
+      </c>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9">
+        <v>2</v>
+      </c>
+      <c r="P61" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>10250101</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="2">
+        <v>112</v>
+      </c>
+      <c r="D62" s="2">
+        <v>100</v>
+      </c>
+      <c r="E62" s="10">
+        <v>2</v>
+      </c>
+      <c r="F62" s="9">
+        <v>3</v>
+      </c>
+      <c r="G62" s="9">
+        <v>2</v>
+      </c>
+      <c r="H62" s="9">
+        <v>1</v>
+      </c>
+      <c r="I62" s="9">
+        <v>2</v>
+      </c>
+      <c r="J62" s="9">
+        <v>5</v>
+      </c>
+      <c r="K62" s="9">
+        <v>1</v>
+      </c>
+      <c r="L62" s="9">
+        <v>-200</v>
+      </c>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>10260101</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="2">
+        <v>112</v>
+      </c>
+      <c r="D63" s="2">
+        <v>100</v>
+      </c>
+      <c r="E63" s="10">
+        <v>1</v>
+      </c>
+      <c r="F63" s="9">
+        <v>2</v>
+      </c>
+      <c r="G63" s="9">
+        <v>3</v>
+      </c>
+      <c r="H63" s="9">
+        <v>1</v>
+      </c>
+      <c r="I63" s="9">
+        <v>1</v>
+      </c>
+      <c r="J63" s="9">
+        <v>9</v>
+      </c>
+      <c r="K63" s="9">
+        <v>1</v>
+      </c>
+      <c r="L63" s="9">
+        <v>-200</v>
+      </c>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>10270101</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="2">
+        <v>112</v>
+      </c>
+      <c r="D64" s="2">
+        <v>100</v>
+      </c>
+      <c r="E64" s="10">
+        <v>1</v>
+      </c>
+      <c r="F64" s="9">
+        <v>1</v>
+      </c>
+      <c r="G64" s="9">
+        <v>1</v>
+      </c>
+      <c r="H64" s="9">
+        <v>0</v>
+      </c>
+      <c r="I64" s="9">
+        <v>1</v>
+      </c>
+      <c r="J64" s="9">
+        <v>1</v>
+      </c>
+      <c r="K64" s="9">
+        <v>1</v>
+      </c>
+      <c r="L64" s="9">
+        <v>200</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>10280101</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="2">
+        <v>112</v>
+      </c>
+      <c r="D65" s="2">
+        <v>50</v>
+      </c>
+      <c r="E65" s="10">
+        <v>3</v>
+      </c>
+      <c r="F65" s="9">
+        <v>1</v>
+      </c>
+      <c r="G65" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H65" s="9">
+        <v>1</v>
+      </c>
+      <c r="I65" s="9">
+        <v>3</v>
+      </c>
+      <c r="J65" s="9">
+        <v>1</v>
+      </c>
+      <c r="K65" s="9">
+        <v>1</v>
+      </c>
+      <c r="L65" s="9">
+        <v>-100</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9">
+        <v>2</v>
+      </c>
+      <c r="P65" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="9">
+        <v>-100</v>
+      </c>
+      <c r="R65" s="9">
+        <v>3</v>
+      </c>
+      <c r="S65" s="9">
+        <v>1</v>
+      </c>
+      <c r="T65" s="9">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>10280201</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="2">
+        <v>112</v>
+      </c>
+      <c r="D66" s="2">
+        <v>50</v>
+      </c>
+      <c r="E66" s="10">
+        <v>1</v>
+      </c>
+      <c r="F66" s="9">
+        <v>1</v>
+      </c>
+      <c r="G66" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H66" s="9">
+        <v>1</v>
+      </c>
+      <c r="I66" s="9">
+        <v>3</v>
+      </c>
+      <c r="J66" s="9">
         <v>18</v>
       </c>
-      <c r="C37" s="2">
+      <c r="K66" s="9">
+        <v>1</v>
+      </c>
+      <c r="L66" s="9">
+        <v>0</v>
+      </c>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>10290101</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="2">
         <v>113</v>
       </c>
-      <c r="D37" s="2">
-        <v>100</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="D67" s="2">
+        <v>100</v>
+      </c>
+      <c r="E67" s="10">
+        <v>13</v>
+      </c>
+      <c r="F67" s="9">
+        <v>6</v>
+      </c>
+      <c r="G67" s="9">
+        <v>1</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
+        <v>1</v>
+      </c>
+      <c r="J67" s="9">
+        <v>13</v>
+      </c>
+      <c r="K67" s="9">
+        <v>0</v>
+      </c>
+      <c r="L67" s="9">
+        <v>50</v>
+      </c>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>10300101</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="2">
+        <v>112</v>
+      </c>
+      <c r="D68" s="2">
+        <v>100</v>
+      </c>
+      <c r="E68" s="10">
+        <v>1</v>
+      </c>
+      <c r="F68" s="9">
+        <v>2</v>
+      </c>
+      <c r="G68" s="9">
+        <v>2</v>
+      </c>
+      <c r="H68" s="9">
+        <v>1</v>
+      </c>
+      <c r="I68" s="9">
+        <v>1</v>
+      </c>
+      <c r="J68" s="9">
+        <v>2</v>
+      </c>
+      <c r="K68" s="9">
+        <v>1</v>
+      </c>
+      <c r="L68" s="9">
+        <v>150</v>
+      </c>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>10310101</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="2">
+        <v>112</v>
+      </c>
+      <c r="D69" s="2">
+        <v>100</v>
+      </c>
+      <c r="E69" s="10">
+        <v>1</v>
+      </c>
+      <c r="F69" s="9">
+        <v>1</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1</v>
+      </c>
+      <c r="H69" s="9">
+        <v>0</v>
+      </c>
+      <c r="I69" s="9">
+        <v>1</v>
+      </c>
+      <c r="J69" s="9">
+        <v>24</v>
+      </c>
+      <c r="K69" s="9">
+        <v>1</v>
+      </c>
+      <c r="L69" s="9">
+        <v>0</v>
+      </c>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>10320101</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="2">
+        <v>112</v>
+      </c>
+      <c r="D70" s="2">
+        <v>100</v>
+      </c>
+      <c r="E70" s="10">
+        <v>2</v>
+      </c>
+      <c r="F70" s="9">
+        <v>1</v>
+      </c>
+      <c r="G70" s="9">
+        <v>1</v>
+      </c>
+      <c r="H70" s="9">
+        <v>0</v>
+      </c>
+      <c r="I70" s="9">
+        <v>2</v>
+      </c>
+      <c r="J70" s="9">
+        <v>5</v>
+      </c>
+      <c r="K70" s="9">
+        <v>1</v>
+      </c>
+      <c r="L70" s="9">
+        <v>-200</v>
+      </c>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>10320201</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="2">
+        <v>112</v>
+      </c>
+      <c r="D71" s="2">
+        <v>100</v>
+      </c>
+      <c r="E71" s="10">
+        <v>13</v>
+      </c>
+      <c r="F71" s="9">
+        <v>1</v>
+      </c>
+      <c r="G71" s="9">
+        <v>1</v>
+      </c>
+      <c r="H71" s="9">
+        <v>0</v>
+      </c>
+      <c r="I71" s="9">
+        <v>1</v>
+      </c>
+      <c r="J71" s="9">
         <v>11</v>
       </c>
-      <c r="F37" s="10">
+      <c r="K71" s="9">
+        <v>1</v>
+      </c>
+      <c r="L71" s="9">
+        <v>2000</v>
+      </c>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>10330101</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="2">
+        <v>112</v>
+      </c>
+      <c r="D72" s="2">
+        <v>100</v>
+      </c>
+      <c r="E72" s="10">
+        <v>1</v>
+      </c>
+      <c r="F72" s="9">
+        <v>1</v>
+      </c>
+      <c r="G72" s="9">
+        <v>1</v>
+      </c>
+      <c r="H72" s="9">
+        <v>0</v>
+      </c>
+      <c r="I72" s="9">
+        <v>1</v>
+      </c>
+      <c r="J72" s="9">
+        <v>7</v>
+      </c>
+      <c r="K72" s="9">
+        <v>1</v>
+      </c>
+      <c r="L72" s="9">
+        <v>180</v>
+      </c>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>10340101</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="2">
+        <v>119</v>
+      </c>
+      <c r="D73" s="2">
+        <v>100</v>
+      </c>
+      <c r="E73" s="10">
+        <v>7</v>
+      </c>
+      <c r="F73" s="9">
         <v>6</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G73" s="9">
+        <v>1</v>
+      </c>
+      <c r="H73" s="9">
+        <v>0</v>
+      </c>
+      <c r="I73" s="9">
+        <v>1</v>
+      </c>
+      <c r="J73" s="9">
+        <v>13</v>
+      </c>
+      <c r="K73" s="9">
+        <v>0</v>
+      </c>
+      <c r="L73" s="9">
+        <v>10</v>
+      </c>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>10340201</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="2">
+        <v>119</v>
+      </c>
+      <c r="D74" s="2">
+        <v>100</v>
+      </c>
+      <c r="E74" s="10">
+        <v>6</v>
+      </c>
+      <c r="F74" s="9">
+        <v>6</v>
+      </c>
+      <c r="G74" s="9">
+        <v>1</v>
+      </c>
+      <c r="H74" s="9">
+        <v>0</v>
+      </c>
+      <c r="I74" s="9">
+        <v>1</v>
+      </c>
+      <c r="J74" s="9">
+        <v>13</v>
+      </c>
+      <c r="K74" s="9">
+        <v>0</v>
+      </c>
+      <c r="L74" s="9">
+        <v>10</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>10370101</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="2">
+        <v>114</v>
+      </c>
+      <c r="D75" s="2">
+        <v>100</v>
+      </c>
+      <c r="E75" s="10">
+        <v>7</v>
+      </c>
+      <c r="F75" s="9">
+        <v>6</v>
+      </c>
+      <c r="G75" s="9">
+        <v>5</v>
+      </c>
+      <c r="H75" s="9">
+        <v>1</v>
+      </c>
+      <c r="I75" s="9">
+        <v>1</v>
+      </c>
+      <c r="J75" s="9">
+        <v>5</v>
+      </c>
+      <c r="K75" s="9">
+        <v>1</v>
+      </c>
+      <c r="L75" s="9">
+        <v>200</v>
+      </c>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>10380101</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="2">
+        <v>112</v>
+      </c>
+      <c r="D76" s="2">
+        <v>100</v>
+      </c>
+      <c r="E76" s="10">
+        <v>2</v>
+      </c>
+      <c r="F76" s="9">
+        <v>1</v>
+      </c>
+      <c r="G76" s="9">
+        <v>1</v>
+      </c>
+      <c r="H76" s="9">
+        <v>0</v>
+      </c>
+      <c r="I76" s="9">
+        <v>2</v>
+      </c>
+      <c r="J76" s="9">
+        <v>5</v>
+      </c>
+      <c r="K76" s="9">
+        <v>1</v>
+      </c>
+      <c r="L76" s="9">
+        <v>-250</v>
+      </c>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>10390101</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="2">
+        <v>112</v>
+      </c>
+      <c r="D77" s="2">
+        <v>100</v>
+      </c>
+      <c r="E77" s="10">
+        <v>1</v>
+      </c>
+      <c r="F77" s="9">
+        <v>1</v>
+      </c>
+      <c r="G77" s="9">
+        <v>1</v>
+      </c>
+      <c r="H77" s="9">
+        <v>0</v>
+      </c>
+      <c r="I77" s="9">
+        <v>1</v>
+      </c>
+      <c r="J77" s="9">
+        <v>1</v>
+      </c>
+      <c r="K77" s="9">
+        <v>1</v>
+      </c>
+      <c r="L77" s="9">
+        <v>150</v>
+      </c>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>10400101</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="2">
+        <v>112</v>
+      </c>
+      <c r="D78" s="2">
+        <v>100</v>
+      </c>
+      <c r="E78" s="10">
+        <v>11</v>
+      </c>
+      <c r="F78" s="9">
+        <v>1</v>
+      </c>
+      <c r="G78" s="9">
+        <v>2</v>
+      </c>
+      <c r="H78" s="9">
+        <v>1</v>
+      </c>
+      <c r="I78" s="9">
+        <v>1</v>
+      </c>
+      <c r="J78" s="9">
+        <v>1</v>
+      </c>
+      <c r="K78" s="9">
+        <v>1</v>
+      </c>
+      <c r="L78" s="9">
+        <v>50</v>
+      </c>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>10410101</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="2">
+        <v>118</v>
+      </c>
+      <c r="D79" s="2">
+        <v>100</v>
+      </c>
+      <c r="E79" s="10">
+        <v>2</v>
+      </c>
+      <c r="F79" s="9">
+        <v>6</v>
+      </c>
+      <c r="G79" s="9">
         <v>3</v>
       </c>
-      <c r="H37" s="10">
-        <v>1</v>
-      </c>
-      <c r="I37" s="10">
-        <v>1</v>
-      </c>
-      <c r="J37" s="10">
-        <v>1</v>
-      </c>
-      <c r="K37" s="10">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>10080101</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>100</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
-      <c r="F38" s="10">
-        <v>2</v>
-      </c>
-      <c r="G38" s="10">
+      <c r="H79" s="9">
+        <v>1</v>
+      </c>
+      <c r="I79" s="9">
+        <v>2</v>
+      </c>
+      <c r="J79" s="9">
+        <v>5</v>
+      </c>
+      <c r="K79" s="9">
+        <v>1</v>
+      </c>
+      <c r="L79" s="9">
+        <v>-100</v>
+      </c>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>10420101</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="2">
+        <v>112</v>
+      </c>
+      <c r="D80" s="2">
+        <v>100</v>
+      </c>
+      <c r="E80" s="10">
+        <v>1</v>
+      </c>
+      <c r="F80" s="9">
+        <v>1</v>
+      </c>
+      <c r="G80" s="9">
         <v>3</v>
       </c>
-      <c r="H38" s="10">
-        <v>1</v>
-      </c>
-      <c r="I38" s="10">
-        <v>1</v>
-      </c>
-      <c r="J38" s="10">
-        <v>1</v>
-      </c>
-      <c r="K38" s="10">
-        <v>100</v>
-      </c>
-      <c r="L38" s="10">
-        <v>2</v>
-      </c>
-      <c r="M38" s="10">
-        <v>1</v>
-      </c>
-      <c r="N38" s="10">
-        <v>100</v>
-      </c>
-      <c r="O38" s="10">
+      <c r="H80" s="9">
+        <v>1</v>
+      </c>
+      <c r="I80" s="9">
+        <v>1</v>
+      </c>
+      <c r="J80" s="9">
         <v>3</v>
       </c>
-      <c r="P38" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F53" s="11"/>
+      <c r="K80" s="9">
+        <v>1</v>
+      </c>
+      <c r="L80" s="9">
+        <v>200</v>
+      </c>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>10430101</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="2">
+        <v>112</v>
+      </c>
+      <c r="D81" s="2">
+        <v>100</v>
+      </c>
+      <c r="E81" s="10">
+        <v>1</v>
+      </c>
+      <c r="F81" s="9">
+        <v>1</v>
+      </c>
+      <c r="G81" s="9">
+        <v>3</v>
+      </c>
+      <c r="H81" s="9">
+        <v>1</v>
+      </c>
+      <c r="I81" s="9">
+        <v>1</v>
+      </c>
+      <c r="J81" s="9">
+        <v>2</v>
+      </c>
+      <c r="K81" s="9">
+        <v>1</v>
+      </c>
+      <c r="L81" s="9">
+        <v>100</v>
+      </c>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>10440101</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="2">
+        <v>112</v>
+      </c>
+      <c r="D82" s="2">
+        <v>100</v>
+      </c>
+      <c r="E82" s="10">
+        <v>11</v>
+      </c>
+      <c r="F82" s="9">
+        <v>1</v>
+      </c>
+      <c r="G82" s="9">
+        <v>1</v>
+      </c>
+      <c r="H82" s="9">
+        <v>0</v>
+      </c>
+      <c r="I82" s="9">
+        <v>1</v>
+      </c>
+      <c r="J82" s="9">
+        <v>1</v>
+      </c>
+      <c r="K82" s="9">
+        <v>1</v>
+      </c>
+      <c r="L82" s="9">
+        <v>50</v>
+      </c>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9">
+        <v>2</v>
+      </c>
+      <c r="P82" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>10450101</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="2">
+        <v>112</v>
+      </c>
+      <c r="D83" s="2">
+        <v>100</v>
+      </c>
+      <c r="E83" s="10">
+        <v>11</v>
+      </c>
+      <c r="F83" s="9">
+        <v>1</v>
+      </c>
+      <c r="G83" s="9">
+        <v>1</v>
+      </c>
+      <c r="H83" s="9">
+        <v>0</v>
+      </c>
+      <c r="I83" s="9">
+        <v>1</v>
+      </c>
+      <c r="J83" s="9">
+        <v>7</v>
+      </c>
+      <c r="K83" s="9">
+        <v>1</v>
+      </c>
+      <c r="L83" s="9">
+        <v>50</v>
+      </c>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>10460101</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="2">
+        <v>112</v>
+      </c>
+      <c r="D84" s="2">
+        <v>100</v>
+      </c>
+      <c r="E84" s="10">
+        <v>11</v>
+      </c>
+      <c r="F84" s="9">
+        <v>1</v>
+      </c>
+      <c r="G84" s="9">
+        <v>3</v>
+      </c>
+      <c r="H84" s="9">
+        <v>1</v>
+      </c>
+      <c r="I84" s="9">
+        <v>1</v>
+      </c>
+      <c r="J84" s="9">
+        <v>5</v>
+      </c>
+      <c r="K84" s="9">
+        <v>1</v>
+      </c>
+      <c r="L84" s="9">
+        <v>50</v>
+      </c>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>10470101</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="2">
+        <v>112</v>
+      </c>
+      <c r="D85" s="2">
+        <v>100</v>
+      </c>
+      <c r="E85" s="10">
+        <v>13</v>
+      </c>
+      <c r="F85" s="9">
+        <v>1</v>
+      </c>
+      <c r="G85" s="9">
+        <v>1</v>
+      </c>
+      <c r="H85" s="9">
+        <v>0</v>
+      </c>
+      <c r="I85" s="9">
+        <v>2</v>
+      </c>
+      <c r="J85" s="9">
+        <v>2</v>
+      </c>
+      <c r="K85" s="9">
+        <v>1</v>
+      </c>
+      <c r="L85" s="9">
+        <v>-200</v>
+      </c>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>10480101</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="2">
+        <v>112</v>
+      </c>
+      <c r="D86" s="2">
+        <v>100</v>
+      </c>
+      <c r="E86" s="10">
+        <v>11</v>
+      </c>
+      <c r="F86" s="9">
+        <v>1</v>
+      </c>
+      <c r="G86" s="9">
+        <v>1</v>
+      </c>
+      <c r="H86" s="9">
+        <v>0</v>
+      </c>
+      <c r="I86" s="9">
+        <v>1</v>
+      </c>
+      <c r="J86" s="9">
+        <v>6</v>
+      </c>
+      <c r="K86" s="9">
+        <v>1</v>
+      </c>
+      <c r="L86" s="9">
+        <v>150</v>
+      </c>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>10490101</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="2">
+        <v>112</v>
+      </c>
+      <c r="D87" s="2">
+        <v>100</v>
+      </c>
+      <c r="E87" s="10">
+        <v>1</v>
+      </c>
+      <c r="F87" s="9">
+        <v>1</v>
+      </c>
+      <c r="G87" s="9">
+        <v>2</v>
+      </c>
+      <c r="H87" s="9">
+        <v>1</v>
+      </c>
+      <c r="I87" s="9">
+        <v>1</v>
+      </c>
+      <c r="J87" s="9">
+        <v>5</v>
+      </c>
+      <c r="K87" s="9">
+        <v>1</v>
+      </c>
+      <c r="L87" s="9">
+        <v>100</v>
+      </c>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>10500101</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="2">
+        <v>112</v>
+      </c>
+      <c r="D88" s="2">
+        <v>100</v>
+      </c>
+      <c r="E88" s="10">
+        <v>1</v>
+      </c>
+      <c r="F88" s="9">
+        <v>1</v>
+      </c>
+      <c r="G88" s="9">
+        <v>1</v>
+      </c>
+      <c r="H88" s="9">
+        <v>0</v>
+      </c>
+      <c r="I88" s="9">
+        <v>1</v>
+      </c>
+      <c r="J88" s="9">
+        <v>8</v>
+      </c>
+      <c r="K88" s="9">
+        <v>1</v>
+      </c>
+      <c r="L88" s="9">
+        <v>100</v>
+      </c>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>10510101</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="2">
+        <v>112</v>
+      </c>
+      <c r="D89" s="2">
+        <v>100</v>
+      </c>
+      <c r="E89" s="10">
+        <v>1</v>
+      </c>
+      <c r="F89" s="9">
+        <v>1</v>
+      </c>
+      <c r="G89" s="9">
+        <v>1</v>
+      </c>
+      <c r="H89" s="9">
+        <v>0</v>
+      </c>
+      <c r="I89" s="9">
+        <v>1</v>
+      </c>
+      <c r="J89" s="9">
+        <v>2</v>
+      </c>
+      <c r="K89" s="9">
+        <v>0</v>
+      </c>
+      <c r="L89" s="9">
+        <v>500</v>
+      </c>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>10520101</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" s="2">
+        <v>112</v>
+      </c>
+      <c r="D90" s="2">
+        <v>100</v>
+      </c>
+      <c r="E90" s="10">
+        <v>1</v>
+      </c>
+      <c r="F90" s="9">
+        <v>1</v>
+      </c>
+      <c r="G90" s="9">
+        <v>1</v>
+      </c>
+      <c r="H90" s="9">
+        <v>0</v>
+      </c>
+      <c r="I90" s="9">
+        <v>1</v>
+      </c>
+      <c r="J90" s="9">
+        <v>7</v>
+      </c>
+      <c r="K90" s="9">
+        <v>0</v>
+      </c>
+      <c r="L90" s="9">
+        <v>500</v>
+      </c>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>10530101</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="2">
+        <v>112</v>
+      </c>
+      <c r="D91" s="2">
+        <v>100</v>
+      </c>
+      <c r="E91" s="10">
+        <v>1</v>
+      </c>
+      <c r="F91" s="9">
+        <v>1</v>
+      </c>
+      <c r="G91" s="9">
+        <v>1</v>
+      </c>
+      <c r="H91" s="9">
+        <v>0</v>
+      </c>
+      <c r="I91" s="9">
+        <v>1</v>
+      </c>
+      <c r="J91" s="9">
+        <v>1</v>
+      </c>
+      <c r="K91" s="9">
+        <v>0</v>
+      </c>
+      <c r="L91" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>10540101</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="2">
+        <v>112</v>
+      </c>
+      <c r="D92" s="2">
+        <v>100</v>
+      </c>
+      <c r="E92" s="10">
+        <v>1</v>
+      </c>
+      <c r="F92" s="9">
+        <v>1</v>
+      </c>
+      <c r="G92" s="9">
+        <v>1</v>
+      </c>
+      <c r="H92" s="9">
+        <v>0</v>
+      </c>
+      <c r="I92" s="9">
+        <v>1</v>
+      </c>
+      <c r="J92" s="9">
+        <v>3</v>
+      </c>
+      <c r="K92" s="9">
+        <v>0</v>
+      </c>
+      <c r="L92" s="9">
+        <v>500</v>
+      </c>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>10550101</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="2">
+        <v>112</v>
+      </c>
+      <c r="D93" s="2">
+        <v>100</v>
+      </c>
+      <c r="E93" s="10">
+        <v>1</v>
+      </c>
+      <c r="F93" s="9">
+        <v>1</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1</v>
+      </c>
+      <c r="H93" s="9">
+        <v>0</v>
+      </c>
+      <c r="I93" s="9">
+        <v>1</v>
+      </c>
+      <c r="J93" s="9">
+        <v>8</v>
+      </c>
+      <c r="K93" s="9">
+        <v>0</v>
+      </c>
+      <c r="L93" s="9">
+        <v>750</v>
+      </c>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>10560101</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" s="2">
+        <v>112</v>
+      </c>
+      <c r="D94" s="2">
+        <v>100</v>
+      </c>
+      <c r="E94" s="10">
+        <v>1</v>
+      </c>
+      <c r="F94" s="9">
+        <v>1</v>
+      </c>
+      <c r="G94" s="9">
+        <v>1</v>
+      </c>
+      <c r="H94" s="9">
+        <v>0</v>
+      </c>
+      <c r="I94" s="9">
+        <v>1</v>
+      </c>
+      <c r="J94" s="9">
+        <v>5</v>
+      </c>
+      <c r="K94" s="9">
+        <v>0</v>
+      </c>
+      <c r="L94" s="9">
+        <v>500</v>
+      </c>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>10570101</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95" s="2">
+        <v>112</v>
+      </c>
+      <c r="D95" s="2">
+        <v>100</v>
+      </c>
+      <c r="E95" s="10">
+        <v>1</v>
+      </c>
+      <c r="F95" s="9">
+        <v>1</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1</v>
+      </c>
+      <c r="H95" s="9">
+        <v>0</v>
+      </c>
+      <c r="I95" s="9">
+        <v>1</v>
+      </c>
+      <c r="J95" s="9">
+        <v>5</v>
+      </c>
+      <c r="K95" s="9">
+        <v>0</v>
+      </c>
+      <c r="L95" s="9">
+        <v>500</v>
+      </c>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>10580101</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" s="2">
+        <v>112</v>
+      </c>
+      <c r="D96" s="2">
+        <v>100</v>
+      </c>
+      <c r="E96" s="10">
+        <v>1</v>
+      </c>
+      <c r="F96" s="9">
+        <v>1</v>
+      </c>
+      <c r="G96" s="9">
+        <v>1</v>
+      </c>
+      <c r="H96" s="9">
+        <v>0</v>
+      </c>
+      <c r="I96" s="9">
+        <v>1</v>
+      </c>
+      <c r="J96" s="9">
+        <v>3</v>
+      </c>
+      <c r="K96" s="9">
+        <v>0</v>
+      </c>
+      <c r="L96" s="9">
+        <v>500</v>
+      </c>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>21010101</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="2">
+        <v>112</v>
+      </c>
+      <c r="D97" s="2">
+        <v>100</v>
+      </c>
+      <c r="E97" s="10">
+        <v>1</v>
+      </c>
+      <c r="F97" s="9">
+        <v>1</v>
+      </c>
+      <c r="G97" s="9">
+        <v>1</v>
+      </c>
+      <c r="H97" s="9">
+        <v>0</v>
+      </c>
+      <c r="I97" s="9">
+        <v>1</v>
+      </c>
+      <c r="J97" s="9">
+        <v>1</v>
+      </c>
+      <c r="K97" s="9">
+        <v>1</v>
+      </c>
+      <c r="L97" s="9">
+        <v>200</v>
+      </c>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>21010201</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98" s="2">
+        <v>113</v>
+      </c>
+      <c r="D98" s="2">
+        <v>100</v>
+      </c>
+      <c r="E98" s="10">
+        <v>1</v>
+      </c>
+      <c r="F98" s="9">
+        <v>6</v>
+      </c>
+      <c r="G98" s="9">
+        <v>3</v>
+      </c>
+      <c r="H98" s="9">
+        <v>1</v>
+      </c>
+      <c r="I98" s="9">
+        <v>1</v>
+      </c>
+      <c r="J98" s="9">
+        <v>1</v>
+      </c>
+      <c r="K98" s="9">
+        <v>1</v>
+      </c>
+      <c r="L98" s="9">
+        <v>200</v>
+      </c>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>21020101</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" s="2">
+        <v>118</v>
+      </c>
+      <c r="D99" s="2">
+        <v>100</v>
+      </c>
+      <c r="E99" s="10">
+        <v>9</v>
+      </c>
+      <c r="F99" s="9">
+        <v>6</v>
+      </c>
+      <c r="G99" s="9">
+        <v>3</v>
+      </c>
+      <c r="H99" s="9">
+        <v>1</v>
+      </c>
+      <c r="I99" s="9">
+        <v>1</v>
+      </c>
+      <c r="J99" s="9">
+        <v>2</v>
+      </c>
+      <c r="K99" s="9">
+        <v>1</v>
+      </c>
+      <c r="L99" s="9">
+        <v>150</v>
+      </c>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>21030101</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100" s="2">
+        <v>112</v>
+      </c>
+      <c r="D100" s="2">
+        <v>100</v>
+      </c>
+      <c r="E100" s="10">
+        <v>1</v>
+      </c>
+      <c r="F100" s="9">
+        <v>1</v>
+      </c>
+      <c r="G100" s="9">
+        <v>1</v>
+      </c>
+      <c r="H100" s="9">
+        <v>0</v>
+      </c>
+      <c r="I100" s="9">
+        <v>1</v>
+      </c>
+      <c r="J100" s="9">
+        <v>1</v>
+      </c>
+      <c r="K100" s="9">
+        <v>1</v>
+      </c>
+      <c r="L100" s="9">
+        <v>300</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>21030201</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="2">
+        <v>112</v>
+      </c>
+      <c r="D101" s="2">
+        <v>100</v>
+      </c>
+      <c r="E101" s="10">
+        <v>1</v>
+      </c>
+      <c r="F101" s="9">
+        <v>6</v>
+      </c>
+      <c r="G101" s="9">
+        <v>2</v>
+      </c>
+      <c r="H101" s="9">
+        <v>1</v>
+      </c>
+      <c r="I101" s="9">
+        <v>2</v>
+      </c>
+      <c r="J101" s="9">
+        <v>1</v>
+      </c>
+      <c r="K101" s="9">
+        <v>1</v>
+      </c>
+      <c r="L101" s="9">
+        <v>-150</v>
+      </c>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>22010101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="2">
+        <v>112</v>
+      </c>
+      <c r="D102" s="2">
+        <v>50</v>
+      </c>
+      <c r="E102" s="10">
+        <v>1</v>
+      </c>
+      <c r="F102" s="9">
+        <v>1</v>
+      </c>
+      <c r="G102" s="9">
+        <v>1</v>
+      </c>
+      <c r="H102" s="9">
+        <v>0</v>
+      </c>
+      <c r="I102" s="9">
+        <v>1</v>
+      </c>
+      <c r="J102" s="9">
+        <v>10</v>
+      </c>
+      <c r="K102" s="9">
+        <v>1</v>
+      </c>
+      <c r="L102" s="9">
+        <v>2000</v>
+      </c>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>22020101</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" s="2">
+        <v>112</v>
+      </c>
+      <c r="D103" s="2">
+        <v>100</v>
+      </c>
+      <c r="E103" s="10">
+        <v>1</v>
+      </c>
+      <c r="F103" s="9">
+        <v>1</v>
+      </c>
+      <c r="G103" s="9">
+        <v>1</v>
+      </c>
+      <c r="H103" s="9">
+        <v>0</v>
+      </c>
+      <c r="I103" s="9">
+        <v>1</v>
+      </c>
+      <c r="J103" s="9">
+        <v>3</v>
+      </c>
+      <c r="K103" s="9">
+        <v>1</v>
+      </c>
+      <c r="L103" s="9">
+        <v>100</v>
+      </c>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>22020201</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" s="2">
+        <v>118</v>
+      </c>
+      <c r="D104" s="2">
+        <v>100</v>
+      </c>
+      <c r="E104" s="10">
+        <v>3</v>
+      </c>
+      <c r="F104" s="9">
+        <v>6</v>
+      </c>
+      <c r="G104" s="9">
+        <v>3</v>
+      </c>
+      <c r="H104" s="9">
+        <v>1</v>
+      </c>
+      <c r="I104" s="9">
+        <v>2</v>
+      </c>
+      <c r="J104" s="9">
+        <v>5</v>
+      </c>
+      <c r="K104" s="9">
+        <v>1</v>
+      </c>
+      <c r="L104" s="9">
+        <v>-200</v>
+      </c>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>22030101</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="2">
+        <v>112</v>
+      </c>
+      <c r="D105" s="2">
+        <v>100</v>
+      </c>
+      <c r="E105" s="10">
+        <v>8</v>
+      </c>
+      <c r="F105" s="9">
+        <v>1</v>
+      </c>
+      <c r="G105" s="9">
+        <v>2</v>
+      </c>
+      <c r="H105" s="9">
+        <v>1</v>
+      </c>
+      <c r="I105" s="9">
+        <v>1</v>
+      </c>
+      <c r="J105" s="9">
+        <v>5</v>
+      </c>
+      <c r="K105" s="9">
+        <v>1</v>
+      </c>
+      <c r="L105" s="9">
+        <v>100</v>
+      </c>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>23010101</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C106" s="2">
+        <v>112</v>
+      </c>
+      <c r="D106" s="2">
+        <v>100</v>
+      </c>
+      <c r="E106" s="10">
+        <v>3</v>
+      </c>
+      <c r="F106" s="9">
+        <v>1</v>
+      </c>
+      <c r="G106" s="9">
+        <v>3</v>
+      </c>
+      <c r="H106" s="9">
+        <v>1</v>
+      </c>
+      <c r="I106" s="9">
+        <v>2</v>
+      </c>
+      <c r="J106" s="9">
+        <v>2</v>
+      </c>
+      <c r="K106" s="9">
+        <v>1</v>
+      </c>
+      <c r="L106" s="9">
+        <v>-200</v>
+      </c>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9">
+        <v>3</v>
+      </c>
+      <c r="P106" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="9">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>23020101</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C107" s="2">
+        <v>112</v>
+      </c>
+      <c r="D107" s="2">
+        <v>100</v>
+      </c>
+      <c r="E107" s="10">
+        <v>1</v>
+      </c>
+      <c r="F107" s="9">
+        <v>1</v>
+      </c>
+      <c r="G107" s="9">
+        <v>1</v>
+      </c>
+      <c r="H107" s="9">
+        <v>0</v>
+      </c>
+      <c r="I107" s="9">
+        <v>1</v>
+      </c>
+      <c r="J107" s="9">
+        <v>7</v>
+      </c>
+      <c r="K107" s="9">
+        <v>1</v>
+      </c>
+      <c r="L107" s="9">
+        <v>100</v>
+      </c>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>23020201</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108" s="2">
+        <v>117</v>
+      </c>
+      <c r="D108" s="2">
+        <v>100</v>
+      </c>
+      <c r="E108" s="10">
+        <v>3</v>
+      </c>
+      <c r="F108" s="9">
+        <v>6</v>
+      </c>
+      <c r="G108" s="9">
+        <v>3</v>
+      </c>
+      <c r="H108" s="9">
+        <v>1</v>
+      </c>
+      <c r="I108" s="9">
+        <v>2</v>
+      </c>
+      <c r="J108" s="9">
+        <v>1</v>
+      </c>
+      <c r="K108" s="9">
+        <v>1</v>
+      </c>
+      <c r="L108" s="9">
+        <v>200</v>
+      </c>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>23030101</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C109" s="2">
+        <v>119</v>
+      </c>
+      <c r="D109" s="2">
+        <v>100</v>
+      </c>
+      <c r="E109" s="10">
+        <v>7</v>
+      </c>
+      <c r="F109" s="9">
+        <v>6</v>
+      </c>
+      <c r="G109" s="9">
+        <v>2</v>
+      </c>
+      <c r="H109" s="9">
+        <v>1</v>
+      </c>
+      <c r="I109" s="9">
+        <v>1</v>
+      </c>
+      <c r="J109" s="9">
+        <v>5</v>
+      </c>
+      <c r="K109" s="9">
+        <v>1</v>
+      </c>
+      <c r="L109" s="9">
+        <v>100</v>
+      </c>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+    </row>
+    <row r="110" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="16">
+        <v>10090101</v>
+      </c>
+      <c r="C110" s="17">
+        <v>112</v>
+      </c>
+      <c r="D110" s="17">
+        <v>50</v>
+      </c>
+      <c r="E110" s="18">
+        <v>1</v>
+      </c>
+      <c r="F110" s="16">
+        <v>1</v>
+      </c>
+      <c r="G110" s="16">
+        <v>1</v>
+      </c>
+      <c r="H110" s="16">
+        <v>1</v>
+      </c>
+      <c r="L110" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="16">
+        <v>10140101</v>
+      </c>
+      <c r="C111" s="17">
+        <v>112</v>
+      </c>
+      <c r="D111" s="17">
+        <v>50</v>
+      </c>
+      <c r="E111" s="18">
+        <v>1</v>
+      </c>
+      <c r="F111" s="16">
+        <v>1</v>
+      </c>
+      <c r="G111" s="16">
+        <v>1</v>
+      </c>
+      <c r="H111" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>10360101</v>
+      </c>
+      <c r="C112" s="2">
+        <v>112</v>
+      </c>
+      <c r="D112" s="2">
+        <v>100</v>
+      </c>
+      <c r="E112" s="10">
+        <v>1</v>
+      </c>
+      <c r="F112" s="9">
+        <v>1</v>
+      </c>
+      <c r="G112" s="9">
+        <v>3</v>
+      </c>
+      <c r="H112" s="9">
+        <v>1</v>
+      </c>
+      <c r="I112" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/xls/skillConfig.xlsx
+++ b/xls/skillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="5205" windowWidth="28785" windowHeight="7350"/>
+    <workbookView xWindow="7455" yWindow="5205" windowWidth="28785" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="@技能" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,6 @@
   </si>
   <si>
     <t>百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggerPer[][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -616,6 +612,10 @@
   </si>
   <si>
     <t>精准推射1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerPer[][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1120,7 +1120,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1128,7 +1128,7 @@
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="10" customWidth="1"/>
     <col min="6" max="6" width="22.125" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
@@ -1153,52 +1153,52 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="T1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="168" customHeight="1" x14ac:dyDescent="0.15">
@@ -1209,52 +1209,52 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
@@ -1262,7 +1262,7 @@
         <v>10010101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>112</v>
@@ -1307,7 +1307,7 @@
         <v>10010102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>112</v>
@@ -1352,7 +1352,7 @@
         <v>10010103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>112</v>
@@ -1397,7 +1397,7 @@
         <v>10010104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>112</v>
@@ -1442,7 +1442,7 @@
         <v>10010105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>112</v>
@@ -1487,7 +1487,7 @@
         <v>10010106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>112</v>
@@ -1532,7 +1532,7 @@
         <v>10010107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
         <v>112</v>
@@ -1577,7 +1577,7 @@
         <v>10010108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>112</v>
@@ -1622,7 +1622,7 @@
         <v>10010109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
         <v>112</v>
@@ -1667,7 +1667,7 @@
         <v>10010110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
         <v>112</v>
@@ -1712,7 +1712,7 @@
         <v>10010111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>112</v>
@@ -1757,7 +1757,7 @@
         <v>10010112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2">
         <v>112</v>
@@ -1802,7 +1802,7 @@
         <v>10010113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>112</v>
@@ -1847,7 +1847,7 @@
         <v>10010114</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
         <v>112</v>
@@ -1892,7 +1892,7 @@
         <v>10010115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
         <v>112</v>
@@ -1937,7 +1937,7 @@
         <v>10010116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
         <v>112</v>
@@ -1982,7 +1982,7 @@
         <v>10010117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
         <v>112</v>
@@ -2027,7 +2027,7 @@
         <v>10010118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
         <v>112</v>
@@ -2072,7 +2072,7 @@
         <v>10010119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
         <v>112</v>
@@ -2117,7 +2117,7 @@
         <v>10010120</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="8">
         <v>112</v>
@@ -2162,7 +2162,7 @@
         <v>10010121</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
         <v>112</v>
@@ -2207,7 +2207,7 @@
         <v>10010122</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
         <v>112</v>
@@ -2252,7 +2252,7 @@
         <v>10010123</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2">
         <v>112</v>
@@ -2297,7 +2297,7 @@
         <v>10010124</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
         <v>112</v>
@@ -2342,7 +2342,7 @@
         <v>10010125</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2">
         <v>112</v>
@@ -2387,7 +2387,7 @@
         <v>10010126</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
         <v>112</v>
@@ -2432,7 +2432,7 @@
         <v>10010127</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2">
         <v>112</v>
@@ -2477,7 +2477,7 @@
         <v>10010128</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
         <v>112</v>
@@ -2522,7 +2522,7 @@
         <v>10010129</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
         <v>112</v>
@@ -2567,7 +2567,7 @@
         <v>10010130</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="20">
         <v>112</v>
@@ -2612,7 +2612,7 @@
         <v>10020101</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2">
         <v>112</v>
@@ -2650,7 +2650,7 @@
         <v>10020201</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2">
         <v>113</v>
@@ -2688,7 +2688,7 @@
         <v>10030101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2">
         <v>118</v>
@@ -2728,7 +2728,7 @@
         <v>10040101</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2">
         <v>114</v>
@@ -2768,7 +2768,7 @@
         <v>10050101</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2">
         <v>112</v>
@@ -2808,7 +2808,7 @@
         <v>10060101</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="2">
         <v>112</v>
@@ -2848,7 +2848,7 @@
         <v>10070101</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="2">
         <v>113</v>
@@ -2888,7 +2888,7 @@
         <v>10080101</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2">
         <v>112</v>
@@ -2946,7 +2946,7 @@
         <v>10100101</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2">
         <v>112</v>
@@ -2992,7 +2992,7 @@
         <v>10100201</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2">
         <v>118</v>
@@ -3038,7 +3038,7 @@
         <v>10110101</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" s="2">
         <v>112</v>
@@ -3078,7 +3078,7 @@
         <v>10120101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="2">
         <v>112</v>
@@ -3118,7 +3118,7 @@
         <v>10120201</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="2">
         <v>116</v>
@@ -3158,7 +3158,7 @@
         <v>10130101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="2">
         <v>112</v>
@@ -3198,7 +3198,7 @@
         <v>10130201</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="2">
         <v>112</v>
@@ -3238,7 +3238,7 @@
         <v>10150101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="2">
         <v>112</v>
@@ -3278,7 +3278,7 @@
         <v>10160101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="2">
         <v>112</v>
@@ -3318,7 +3318,7 @@
         <v>10160201</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="2">
         <v>117</v>
@@ -3358,7 +3358,7 @@
         <v>10170101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" s="2">
         <v>112</v>
@@ -3407,7 +3407,7 @@
         <v>10180101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2">
         <v>117</v>
@@ -3456,7 +3456,7 @@
         <v>10190101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" s="2">
         <v>112</v>
@@ -3496,7 +3496,7 @@
         <v>10190201</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C54" s="2">
         <v>117</v>
@@ -3536,7 +3536,7 @@
         <v>10200101</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2">
         <v>112</v>
@@ -3576,7 +3576,7 @@
         <v>10200201</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" s="2">
         <v>112</v>
@@ -3616,7 +3616,7 @@
         <v>10210101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C57" s="2">
         <v>118</v>
@@ -3656,7 +3656,7 @@
         <v>10210201</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2">
         <v>118</v>
@@ -3696,7 +3696,7 @@
         <v>10220101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" s="2">
         <v>112</v>
@@ -3736,7 +3736,7 @@
         <v>10230101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2">
         <v>112</v>
@@ -3776,7 +3776,7 @@
         <v>10240101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C61" s="2">
         <v>112</v>
@@ -3825,7 +3825,7 @@
         <v>10250101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62" s="2">
         <v>112</v>
@@ -3865,7 +3865,7 @@
         <v>10260101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C63" s="2">
         <v>112</v>
@@ -3905,7 +3905,7 @@
         <v>10270101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64" s="2">
         <v>112</v>
@@ -3945,7 +3945,7 @@
         <v>10280101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65" s="2">
         <v>112</v>
@@ -4003,7 +4003,7 @@
         <v>10280201</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C66" s="2">
         <v>112</v>
@@ -4043,7 +4043,7 @@
         <v>10290101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2">
         <v>113</v>
@@ -4083,7 +4083,7 @@
         <v>10300101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2">
         <v>112</v>
@@ -4123,7 +4123,7 @@
         <v>10310101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C69" s="2">
         <v>112</v>
@@ -4163,7 +4163,7 @@
         <v>10320101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C70" s="2">
         <v>112</v>
@@ -4203,7 +4203,7 @@
         <v>10320201</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2">
         <v>112</v>
@@ -4243,7 +4243,7 @@
         <v>10330101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C72" s="2">
         <v>112</v>
@@ -4283,7 +4283,7 @@
         <v>10340101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C73" s="2">
         <v>119</v>
@@ -4323,7 +4323,7 @@
         <v>10340201</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74" s="2">
         <v>119</v>
@@ -4363,7 +4363,7 @@
         <v>10370101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2">
         <v>114</v>
@@ -4403,7 +4403,7 @@
         <v>10380101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2">
         <v>112</v>
@@ -4443,7 +4443,7 @@
         <v>10390101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2">
         <v>112</v>
@@ -4483,7 +4483,7 @@
         <v>10400101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2">
         <v>112</v>
@@ -4523,7 +4523,7 @@
         <v>10410101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2">
         <v>118</v>
@@ -4563,7 +4563,7 @@
         <v>10420101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2">
         <v>112</v>
@@ -4603,7 +4603,7 @@
         <v>10430101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2">
         <v>112</v>
@@ -4643,7 +4643,7 @@
         <v>10440101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2">
         <v>112</v>
@@ -4692,7 +4692,7 @@
         <v>10450101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2">
         <v>112</v>
@@ -4732,7 +4732,7 @@
         <v>10460101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2">
         <v>112</v>
@@ -4772,7 +4772,7 @@
         <v>10470101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2">
         <v>112</v>
@@ -4812,7 +4812,7 @@
         <v>10480101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2">
         <v>112</v>
@@ -4852,7 +4852,7 @@
         <v>10490101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2">
         <v>112</v>
@@ -4892,7 +4892,7 @@
         <v>10500101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2">
         <v>112</v>
@@ -4932,7 +4932,7 @@
         <v>10510101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2">
         <v>112</v>
@@ -4972,7 +4972,7 @@
         <v>10520101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2">
         <v>112</v>
@@ -5012,7 +5012,7 @@
         <v>10530101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C91" s="2">
         <v>112</v>
@@ -5052,7 +5052,7 @@
         <v>10540101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2">
         <v>112</v>
@@ -5092,7 +5092,7 @@
         <v>10550101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2">
         <v>112</v>
@@ -5132,7 +5132,7 @@
         <v>10560101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C94" s="2">
         <v>112</v>
@@ -5172,7 +5172,7 @@
         <v>10570101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2">
         <v>112</v>
@@ -5212,7 +5212,7 @@
         <v>10580101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C96" s="2">
         <v>112</v>
@@ -5252,7 +5252,7 @@
         <v>21010101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C97" s="2">
         <v>112</v>
@@ -5292,7 +5292,7 @@
         <v>21010201</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C98" s="2">
         <v>113</v>
@@ -5332,7 +5332,7 @@
         <v>21020101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2">
         <v>118</v>
@@ -5372,7 +5372,7 @@
         <v>21030101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C100" s="2">
         <v>112</v>
@@ -5412,7 +5412,7 @@
         <v>21030201</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C101" s="2">
         <v>112</v>
@@ -5452,7 +5452,7 @@
         <v>22010101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2">
         <v>112</v>
@@ -5492,7 +5492,7 @@
         <v>22020101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C103" s="2">
         <v>112</v>
@@ -5532,7 +5532,7 @@
         <v>22020201</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C104" s="2">
         <v>118</v>
@@ -5572,7 +5572,7 @@
         <v>22030101</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C105" s="2">
         <v>112</v>
@@ -5612,7 +5612,7 @@
         <v>23010101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C106" s="2">
         <v>112</v>
@@ -5661,7 +5661,7 @@
         <v>23020101</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C107" s="2">
         <v>112</v>
@@ -5701,7 +5701,7 @@
         <v>23020201</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C108" s="2">
         <v>117</v>
@@ -5741,7 +5741,7 @@
         <v>23030101</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C109" s="2">
         <v>119</v>
@@ -5799,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -5830,7 +5830,7 @@
         <v>10360101</v>
       </c>
       <c r="C112" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D112" s="2">
         <v>100</v>
